--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W5_H100_B16.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5592105263157895</v>
+        <v>0.5631399317406144</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9289617486338798</v>
+        <v>0.9016393442622951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0945945945945946</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5558912386706949</v>
+        <v>0.5589123867069486</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6981519507186859</v>
+        <v>0.6932773109243697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4984894259818731</v>
+        <v>0.4743202416918429</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.128639754901279</v>
+        <v>0.083647314773325</v>
       </c>
       <c r="J2" t="n">
-        <v>1705.750265984416</v>
+        <v>1139.869868916205</v>
       </c>
       <c r="K2" t="n">
-        <v>4025466.056285454</v>
+        <v>1959520.625716404</v>
       </c>
       <c r="L2" t="n">
-        <v>2006.35641307457</v>
+        <v>1399.828784429154</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2474656439652813</v>
+        <v>0.6336805300077593</v>
       </c>
     </row>
   </sheetData>
